--- a/IEEE30_2.xlsx
+++ b/IEEE30_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB939574-5631-47A5-8BC3-7685CA05EE28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB806B1B-9468-4518-A019-8CDDD5BF7F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-105" windowWidth="15360" windowHeight="7560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3168,7 +3168,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3979,8 +3979,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/IEEE30_2.xlsx
+++ b/IEEE30_2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB806B1B-9468-4518-A019-8CDDD5BF7F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA65620-A9C1-417C-B48E-645B580BA6A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-105" windowWidth="15360" windowHeight="7560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-105" windowWidth="15360" windowHeight="7560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generator" sheetId="8" r:id="rId1"/>
@@ -3167,8 +3167,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" activeCellId="1" sqref="R24 Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3230,9 +3230,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G22" si="0">C2*1.11097074666667</f>
-        <v>24.10806520266674</v>
+      <c r="G2">
+        <v>25.14</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>52</v>
@@ -3266,9 +3265,8 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="0"/>
-        <v>2.666329792000008</v>
+      <c r="G3">
+        <v>2.68</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>53</v>
@@ -3302,9 +3300,8 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4433776746666922</v>
+      <c r="G4">
+        <v>7.77</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>54</v>
@@ -3338,9 +3335,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>104.65344433600032</v>
+      <c r="G5">
+        <v>96.1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>55</v>
@@ -3374,9 +3370,8 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>25.330133024000077</v>
+      <c r="G6">
+        <v>25.27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>56</v>
@@ -3410,9 +3405,8 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>33.329122400000102</v>
+      <c r="G7">
+        <v>42.43</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>57</v>
@@ -3446,9 +3440,8 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>6.4436303306666858</v>
+      <c r="G8">
+        <v>6.14</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>58</v>
@@ -3482,9 +3475,8 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>12.442872362666703</v>
+      <c r="G9">
+        <v>13.48</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>59</v>
@@ -3518,9 +3510,8 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.888018629333355</v>
+      <c r="G10">
+        <v>6.4</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>60</v>
@@ -3554,9 +3545,8 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1099601226666937</v>
+      <c r="G11">
+        <v>8.57</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>61</v>
@@ -3590,9 +3580,8 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8883976133333453</v>
+      <c r="G12">
+        <v>3.94</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>62</v>
@@ -3626,9 +3615,8 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>9.9987367200000303</v>
+      <c r="G13">
+        <v>10.71</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>63</v>
@@ -3662,9 +3650,8 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5551063893333446</v>
+      <c r="G14">
+        <v>3.32</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>64</v>
@@ -3698,9 +3685,8 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>10.554222093333365</v>
+      <c r="G15">
+        <v>10.09</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>65</v>
@@ -3734,9 +3720,8 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4441356426666743</v>
+      <c r="G16">
+        <v>2.31</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>66</v>
@@ -3770,9 +3755,8 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>19.441988066666728</v>
+      <c r="G17">
+        <v>20.78</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>67</v>
@@ -3806,9 +3790,8 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5551063893333446</v>
+      <c r="G18">
+        <v>3.58</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>68</v>
@@ -3842,9 +3825,8 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>9.6654454960000287</v>
+      <c r="G19">
+        <v>10.98</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>69</v>
@@ -3878,9 +3860,8 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8883976133333453</v>
+      <c r="G20">
+        <v>4.1900000000000004</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>70</v>
@@ -3914,9 +3895,8 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>2.666329792000008</v>
+      <c r="G21">
+        <v>2.56</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>71</v>
@@ -3950,9 +3930,8 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>11.776289914666702</v>
+      <c r="G22">
+        <v>10.77</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>72</v>
@@ -3979,7 +3958,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>

--- a/IEEE30_2.xlsx
+++ b/IEEE30_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA65620-A9C1-417C-B48E-645B580BA6A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED5189-FD71-46B9-928D-9DF21E935C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-105" windowWidth="15360" windowHeight="7560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generator" sheetId="8" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -370,6 +379,10 @@
   </si>
   <si>
     <t>slack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_of_bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,14 +734,14 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -760,7 +773,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -793,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -825,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -857,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -889,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -921,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -968,9 +981,9 @@
       <selection activeCell="L2" sqref="L2:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1003,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1038,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1178,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1213,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1283,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1318,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1353,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1388,7 +1401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1423,7 +1436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1493,7 +1506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1528,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1563,7 +1576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1598,7 +1611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1773,7 +1786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1808,7 +1821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1843,7 +1856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1948,7 +1961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2018,7 +2031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2053,7 +2066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2088,7 +2101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2123,7 +2136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2158,7 +2171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2228,7 +2241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2263,7 +2276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2312,9 +2325,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2353,7 +2366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2410,7 +2423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2467,7 +2480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2524,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2592,16 +2605,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2609,14 +2622,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2631,7 +2644,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2646,7 +2659,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2661,7 +2674,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2676,7 +2689,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2691,7 +2704,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2706,7 +2719,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2721,7 +2734,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2736,7 +2749,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2751,7 +2764,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2766,7 +2779,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2781,7 +2794,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2796,7 +2809,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2811,7 +2824,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2826,7 +2839,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2841,7 +2854,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2856,7 +2869,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2871,7 +2884,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2886,7 +2899,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2901,7 +2914,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2916,7 +2929,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2931,7 +2944,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2946,7 +2959,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2961,7 +2974,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2976,7 +2989,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2991,7 +3004,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3006,7 +3019,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3021,7 +3034,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3036,7 +3049,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3051,7 +3064,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3082,16 +3095,16 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3119,7 +3132,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3167,18 +3180,18 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q17" activeCellId="1" sqref="R24 Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3211,7 +3224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3246,7 +3259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3281,7 +3294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3316,7 +3329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3351,7 +3364,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3386,7 +3399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3421,7 +3434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3456,7 +3469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3491,7 +3504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3526,7 +3539,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3561,7 +3574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3596,7 +3609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3631,7 +3644,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3666,7 +3679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3701,7 +3714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3736,7 +3749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3771,7 +3784,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3806,7 +3819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3841,7 +3854,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3876,7 +3889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3911,7 +3924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3962,21 +3975,21 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -4011,7 +4024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -4044,7 +4057,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4077,7 +4090,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -4110,7 +4123,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -4140,7 +4153,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -4170,7 +4183,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -4200,7 +4213,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -4233,7 +4246,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -4266,7 +4279,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -4299,7 +4312,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -4332,7 +4345,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -4365,7 +4378,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>5</v>
       </c>
@@ -4398,7 +4411,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>5</v>
       </c>
@@ -4431,7 +4444,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>5</v>
       </c>
@@ -4464,7 +4477,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>5</v>
       </c>
@@ -4497,7 +4510,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -4530,7 +4543,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -4563,7 +4576,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -4596,7 +4609,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>5</v>
       </c>
@@ -4636,7 +4649,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -4669,7 +4682,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>7</v>
       </c>
@@ -4702,7 +4715,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>7</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -4768,7 +4781,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -4808,7 +4821,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>8</v>
       </c>
@@ -4845,7 +4858,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>8</v>
       </c>
@@ -4882,7 +4895,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>8</v>
       </c>
@@ -4919,7 +4932,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>8</v>
       </c>
@@ -4956,7 +4969,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>8</v>
       </c>
@@ -4996,7 +5009,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>10</v>
       </c>
@@ -5029,7 +5042,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>10</v>
       </c>
@@ -5059,7 +5072,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>10</v>
       </c>
@@ -5092,7 +5105,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>12</v>
       </c>
@@ -5122,7 +5135,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>12</v>
       </c>
@@ -5152,7 +5165,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>12</v>
       </c>
@@ -5182,7 +5195,7 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>12</v>
       </c>
@@ -5215,7 +5228,7 @@
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>14</v>
       </c>
@@ -5248,7 +5261,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>15</v>
       </c>
@@ -5278,7 +5291,7 @@
       </c>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>15</v>
       </c>
@@ -5308,7 +5321,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>15</v>
       </c>
@@ -5341,7 +5354,7 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>16</v>
       </c>
@@ -5374,7 +5387,7 @@
       </c>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>17</v>
       </c>
@@ -5404,7 +5417,7 @@
       </c>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>17</v>
       </c>
@@ -5434,7 +5447,7 @@
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>17</v>
       </c>
@@ -5464,7 +5477,7 @@
       </c>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>17</v>
       </c>
@@ -5497,7 +5510,7 @@
       </c>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>18</v>
       </c>
@@ -5530,7 +5543,7 @@
       </c>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>19</v>
       </c>
@@ -5560,7 +5573,7 @@
       </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>19</v>
       </c>
@@ -5590,7 +5603,7 @@
       </c>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>19</v>
       </c>
@@ -5620,7 +5633,7 @@
       </c>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>19</v>
       </c>
@@ -5650,7 +5663,7 @@
       </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>19</v>
       </c>
@@ -5683,7 +5696,7 @@
       </c>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>20</v>
       </c>
@@ -5716,7 +5729,7 @@
       </c>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>21</v>
       </c>
@@ -5746,7 +5759,7 @@
       </c>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>21</v>
       </c>
@@ -5776,7 +5789,7 @@
       </c>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>21</v>
       </c>
@@ -5806,7 +5819,7 @@
       </c>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>21</v>
       </c>
@@ -5836,7 +5849,7 @@
       </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>21</v>
       </c>
@@ -5869,7 +5882,7 @@
       </c>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>23</v>
       </c>
@@ -5902,7 +5915,7 @@
       </c>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>24</v>
       </c>
@@ -5932,7 +5945,7 @@
       </c>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>24</v>
       </c>
@@ -5962,7 +5975,7 @@
       </c>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>24</v>
       </c>
@@ -5992,7 +6005,7 @@
       </c>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>24</v>
       </c>
@@ -6022,7 +6035,7 @@
       </c>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>24</v>
       </c>
@@ -6055,7 +6068,7 @@
       </c>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>26</v>
       </c>
@@ -6088,7 +6101,7 @@
       </c>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>29</v>
       </c>
@@ -6120,7 +6133,7 @@
         <v>543.40960434782778</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>30</v>
       </c>
@@ -6149,7 +6162,7 @@
         <v>168.9</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>30</v>
       </c>
@@ -6178,7 +6191,7 @@
         <v>168.9</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>30</v>
       </c>
@@ -6207,7 +6220,7 @@
         <v>168.9</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>30</v>
       </c>
@@ -6236,7 +6249,7 @@
         <v>168.9</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>30</v>
       </c>
